--- a/hardware/motor/data.xlsx
+++ b/hardware/motor/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\School\Winter 2019\ECE 412-413\motor\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C223AE-DB1F-4A9E-B6E7-527BA33B6EA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB774B-6AC5-4619-9C8F-C806EBF2DCC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{FB06E7B8-299A-4B25-B54F-809236002EA2}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
